--- a/config_10.12/shoping_config.xlsx
+++ b/config_10.12/shoping_config.xlsx
@@ -13858,10 +13858,10 @@
   <dimension ref="A1:AO724"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AH702" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X654" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO724" sqref="AO724"/>
+      <selection pane="bottomRight" activeCell="X666" sqref="X666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -56550,7 +56550,7 @@
         <v>10578</v>
       </c>
       <c r="F662" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G662" s="34" t="s">
         <v>1586</v>
@@ -56592,10 +56592,10 @@
         <v>99999999</v>
       </c>
       <c r="Z662" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA662" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB662" s="34">
         <v>44</v>
@@ -56621,7 +56621,7 @@
         <v>10579</v>
       </c>
       <c r="F663" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G663" s="34" t="s">
         <v>1586</v>
@@ -56663,10 +56663,10 @@
         <v>99999999</v>
       </c>
       <c r="Z663" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA663" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB663" s="34">
         <v>44</v>
@@ -56692,7 +56692,7 @@
         <v>10580</v>
       </c>
       <c r="F664" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G664" s="34" t="s">
         <v>1586</v>
@@ -56734,10 +56734,10 @@
         <v>99999999</v>
       </c>
       <c r="Z664" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA664" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB664" s="34">
         <v>44</v>
@@ -56763,7 +56763,7 @@
         <v>10581</v>
       </c>
       <c r="F665" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G665" s="34" t="s">
         <v>1586</v>
@@ -56805,10 +56805,10 @@
         <v>99999999</v>
       </c>
       <c r="Z665" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA665" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB665" s="34">
         <v>45</v>
@@ -56834,7 +56834,7 @@
         <v>10582</v>
       </c>
       <c r="F666" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G666" s="34" t="s">
         <v>1586</v>
@@ -56876,10 +56876,10 @@
         <v>99999999</v>
       </c>
       <c r="Z666" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA666" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB666" s="34">
         <v>45</v>
@@ -56905,7 +56905,7 @@
         <v>10583</v>
       </c>
       <c r="F667" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G667" s="34" t="s">
         <v>1586</v>
@@ -56947,10 +56947,10 @@
         <v>99999999</v>
       </c>
       <c r="Z667" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA667" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB667" s="34">
         <v>45</v>
@@ -56976,7 +56976,7 @@
         <v>10584</v>
       </c>
       <c r="F668" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G668" s="34" t="s">
         <v>1586</v>
@@ -57018,10 +57018,10 @@
         <v>99999999</v>
       </c>
       <c r="Z668" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA668" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB668" s="34">
         <v>46</v>
@@ -57047,7 +57047,7 @@
         <v>10585</v>
       </c>
       <c r="F669" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G669" s="34" t="s">
         <v>1586</v>
@@ -57089,10 +57089,10 @@
         <v>99999999</v>
       </c>
       <c r="Z669" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA669" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB669" s="34">
         <v>46</v>
@@ -57118,7 +57118,7 @@
         <v>10586</v>
       </c>
       <c r="F670" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G670" s="34" t="s">
         <v>1586</v>
@@ -57160,10 +57160,10 @@
         <v>99999999</v>
       </c>
       <c r="Z670" s="34">
-        <v>1631577600</v>
+        <v>1633996800</v>
       </c>
       <c r="AA670" s="34">
-        <v>1632153599</v>
+        <v>1634572799</v>
       </c>
       <c r="AB670" s="34">
         <v>46</v>
